--- a/Conditional formatitng.xlsx
+++ b/Conditional formatitng.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha Singh\Documents\Projects\excel for data analysis\Data Analysis with Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD0C32-EBB7-451D-84F3-6AD26CAB0B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB439BD-98DA-4CCF-9EA5-2F2B27BB44F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{2ADBF718-3FF7-457C-8720-B74FB3F486CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{2ADBF718-3FF7-457C-8720-B74FB3F486CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
@@ -24,14 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -194,7 +186,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -216,12 +222,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -229,6 +232,55 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -257,7 +309,24 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -594,7 +663,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,7 +1119,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:G20">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1063,7 +1137,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B2" sqref="B2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1518,42 +1592,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.39997558519241921"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="9" tint="0.59999389629810485"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="4"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
+        <color rgb="FFFF0000"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
@@ -1568,7 +1612,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B2" sqref="B2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2021,10 +2065,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="aboveAverage" dxfId="4" priority="4"/>
-    <cfRule type="aboveAverage" dxfId="5" priority="3" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="2"/>
-    <cfRule type="aboveAverage" dxfId="3" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="8" priority="1" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2035,7 +2077,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B2" sqref="B2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2488,8 +2530,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G19">
-    <cfRule type="top10" dxfId="0" priority="2" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="1" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2500,7 +2542,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+      <selection activeCell="G2" sqref="G2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2952,7 +2994,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B19">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2966,7 +3008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E19">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2975,6 +3017,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B056A9CD-9DD8-41BD-985F-0158560B0322}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8DA4485D-8E75-4430-99EE-F0FF33E30644}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3009,6 +3065,19 @@
           </x14:cfRule>
           <xm:sqref>E2:E19</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8DA4485D-8E75-4430-99EE-F0FF33E30644}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G19</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -3020,7 +3089,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G19" sqref="B2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
